--- a/CIPL.xlsx
+++ b/CIPL.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\auto CIPL\alpha1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\website\python\CIPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED758E7-D83F-4EF2-B12B-095C8DCB183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83AC92-36AE-41E0-88B7-E89EF1277143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
-    <sheet name="TAIWAN-PL(4)" sheetId="3" r:id="rId2"/>
-    <sheet name="TAIWAN-CI" sheetId="2" r:id="rId3"/>
+    <sheet name="PL" sheetId="3" r:id="rId2"/>
+    <sheet name="CI" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -28,8 +28,8 @@
     <definedName name="DESCRIPTIONS" localSheetId="1">#REF!</definedName>
     <definedName name="DISCRIPTION">'[1]PRODUCT DESCRIPTION'!$A$1:$A$102</definedName>
     <definedName name="helenathai">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'TAIWAN-CI'!$A$1:$N$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'TAIWAN-PL(4)'!$A$1:$N$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">CI!$A$1:$N$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$A$1:$N$50</definedName>
     <definedName name="PRODUCTCODE">'[1]PRODUCT CODE DESCRIPTION'!$D$1:$D$99</definedName>
     <definedName name="UOM">[1]CODE!$C$2:$C$5</definedName>
     <definedName name="VALIDITY">[1]CODE!$F$2:$F$7</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>I</t>
   </si>
@@ -59,15 +59,9 @@
     <t>TO:</t>
   </si>
   <si>
-    <t>Qian Pei Li</t>
-  </si>
-  <si>
     <t>NO:</t>
   </si>
   <si>
-    <t>PL-006436.18</t>
-  </si>
-  <si>
     <t>REF:</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t xml:space="preserve">TEL:  </t>
   </si>
   <si>
-    <t>+886975030101</t>
-  </si>
-  <si>
     <t>Carton No.</t>
   </si>
   <si>
@@ -173,72 +164,12 @@
     <t>name1</t>
   </si>
   <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
-    <t>name5</t>
-  </si>
-  <si>
-    <t>name6</t>
-  </si>
-  <si>
-    <t>name7</t>
-  </si>
-  <si>
-    <t>name8</t>
-  </si>
-  <si>
-    <t>name9</t>
-  </si>
-  <si>
-    <t>name10</t>
-  </si>
-  <si>
-    <t>name11</t>
-  </si>
-  <si>
-    <t>name12</t>
-  </si>
-  <si>
     <t>name2</t>
   </si>
   <si>
     <t>name_1</t>
   </si>
   <si>
-    <t>name_3</t>
-  </si>
-  <si>
-    <t>name_4</t>
-  </si>
-  <si>
-    <t>name_5</t>
-  </si>
-  <si>
-    <t>name_6</t>
-  </si>
-  <si>
-    <t>name_7</t>
-  </si>
-  <si>
-    <t>name_8</t>
-  </si>
-  <si>
-    <t>name_9</t>
-  </si>
-  <si>
-    <t>name_10</t>
-  </si>
-  <si>
-    <t>name_11</t>
-  </si>
-  <si>
-    <t>name_12</t>
-  </si>
-  <si>
     <t>name_2</t>
   </si>
   <si>
@@ -278,136 +209,16 @@
     <t>PL-124</t>
   </si>
   <si>
-    <t>CI-125</t>
-  </si>
-  <si>
-    <t>PL-125</t>
-  </si>
-  <si>
-    <t>CI-126</t>
-  </si>
-  <si>
-    <t>PL-126</t>
-  </si>
-  <si>
-    <t>CI-127</t>
-  </si>
-  <si>
-    <t>PL-127</t>
-  </si>
-  <si>
-    <t>CI-128</t>
-  </si>
-  <si>
-    <t>PL-128</t>
-  </si>
-  <si>
-    <t>CI-129</t>
-  </si>
-  <si>
-    <t>PL-129</t>
-  </si>
-  <si>
-    <t>CI-130</t>
-  </si>
-  <si>
-    <t>PL-130</t>
-  </si>
-  <si>
-    <t>CI-131</t>
-  </si>
-  <si>
-    <t>PL-131</t>
-  </si>
-  <si>
-    <t>CI-132</t>
-  </si>
-  <si>
-    <t>PL-132</t>
-  </si>
-  <si>
-    <t>CI-133</t>
-  </si>
-  <si>
-    <t>PL-133</t>
-  </si>
-  <si>
-    <t>CI-134</t>
-  </si>
-  <si>
-    <t>PL-134</t>
-  </si>
-  <si>
     <t>address1</t>
   </si>
   <si>
     <t>address2</t>
   </si>
   <si>
-    <t>address3</t>
-  </si>
-  <si>
-    <t>address4</t>
-  </si>
-  <si>
-    <t>address5</t>
-  </si>
-  <si>
-    <t>address6</t>
-  </si>
-  <si>
-    <t>address7</t>
-  </si>
-  <si>
-    <t>address8</t>
-  </si>
-  <si>
-    <t>address9</t>
-  </si>
-  <si>
-    <t>address10</t>
-  </si>
-  <si>
-    <t>address11</t>
-  </si>
-  <si>
-    <t>address12</t>
-  </si>
-  <si>
     <t>phone1</t>
   </si>
   <si>
     <t>phone2</t>
-  </si>
-  <si>
-    <t>phone3</t>
-  </si>
-  <si>
-    <t>phone4</t>
-  </si>
-  <si>
-    <t>phone5</t>
-  </si>
-  <si>
-    <t>phone6</t>
-  </si>
-  <si>
-    <t>phone7</t>
-  </si>
-  <si>
-    <t>phone8</t>
-  </si>
-  <si>
-    <t>phone9</t>
-  </si>
-  <si>
-    <t>phone10</t>
-  </si>
-  <si>
-    <t>phone11</t>
-  </si>
-  <si>
-    <t>phone12</t>
   </si>
 </sst>
 </file>
@@ -415,9 +226,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="dd\-mmm"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -648,7 +459,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -711,7 +522,7 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,7 +583,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -791,7 +602,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,13 +611,13 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,42 +643,42 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2168,7 +1979,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="A4" sqref="A4:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2182,303 +1993,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="80" t="s">
-        <v>69</v>
+      <c r="A1" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="C3" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="79" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>72</v>
+      <c r="G3" s="68" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="79" t="s">
-        <v>72</v>
-      </c>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="79" t="s">
-        <v>72</v>
-      </c>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>72</v>
-      </c>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>72</v>
-      </c>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>72</v>
-      </c>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>72</v>
-      </c>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="79" t="s">
-        <v>72</v>
-      </c>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>72</v>
-      </c>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>72</v>
-      </c>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>72</v>
-      </c>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -2493,8 +2164,8 @@
   </sheetPr>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="55" zoomScaleNormal="130" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:K27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="130" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2677,9 +2348,7 @@
       <c r="C12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -2687,41 +2356,35 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="44" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L12" s="44"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="25.8">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="11"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="25.8">
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2729,10 +2392,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -2749,7 +2412,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -2780,7 +2443,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L17" s="45">
         <v>44706</v>
@@ -2820,22 +2483,19 @@
     <row r="20" spans="1:17" ht="25.8">
       <c r="B20" s="7"/>
       <c r="C20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="9" t="str">
-        <f>D12</f>
-        <v>Qian Pei Li</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="15"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L20" s="46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -2843,12 +2503,10 @@
     <row r="21" spans="1:17" ht="25.8">
       <c r="B21" s="7"/>
       <c r="C21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="69"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="16"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2931,51 +2589,51 @@
     </row>
     <row r="26" spans="1:17" ht="22.05" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="G26" s="72" t="s">
         <v>19</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="73" t="s">
-        <v>22</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
+      <c r="J26" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
       <c r="O26" s="33"/>
       <c r="P26" s="28"/>
     </row>
     <row r="27" spans="1:17" ht="25.8">
       <c r="B27" s="7"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="73"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
     </row>
@@ -3001,30 +2659,30 @@
     <row r="29" spans="1:17" ht="129">
       <c r="B29" s="7"/>
       <c r="C29" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29" s="23">
         <v>3.3</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F29" s="24">
         <v>3822002000</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K29" s="64">
         <v>100</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
@@ -3136,8 +2794,8 @@
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
       <c r="J37" s="33"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
     </row>
     <row r="38" spans="2:14" ht="24.75" customHeight="1">
       <c r="B38" s="7"/>
@@ -3149,14 +2807,14 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="33"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
     </row>
     <row r="39" spans="2:14" ht="24.75" customHeight="1">
       <c r="B39" s="7"/>
       <c r="C39" s="28"/>
       <c r="D39" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
@@ -3164,8 +2822,8 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
@@ -3279,20 +2937,27 @@
     </row>
     <row r="48" spans="2:14" ht="32.4">
       <c r="C48" s="1"/>
-      <c r="G48" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
+      <c r="G48" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
     </row>
     <row r="50" spans="4:4" ht="25.2">
       <c r="D50" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
     <mergeCell ref="G48:L48"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -3302,13 +2967,6 @@
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32:I32 J28:J32 H28:I29" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -3342,7 +3000,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3526,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="7"/>
@@ -3535,10 +3193,10 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3546,18 +3204,18 @@
     <row r="13" spans="1:14" ht="25.8">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="11"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -3565,10 +3223,10 @@
     <row r="14" spans="1:14" ht="25.8">
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -3577,10 +3235,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -3597,7 +3255,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -3628,7 +3286,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L17" s="45">
         <v>44706</v>
@@ -3668,7 +3326,7 @@
     <row r="20" spans="1:17" ht="25.8">
       <c r="B20" s="7"/>
       <c r="C20" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="9" t="str">
         <f>D12</f>
@@ -3680,10 +3338,10 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L20" s="46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -3691,12 +3349,12 @@
     <row r="21" spans="1:17" ht="25.8">
       <c r="B21" s="7"/>
       <c r="C21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="69"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="78"/>
       <c r="F21" s="16"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -3779,55 +3437,55 @@
     </row>
     <row r="26" spans="1:17" ht="22.05" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="G26" s="72" t="s">
         <v>19</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="73" t="s">
-        <v>22</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="76" t="s">
-        <v>37</v>
+      <c r="J26" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="O26" s="33"/>
       <c r="P26" s="28"/>
     </row>
     <row r="27" spans="1:17" ht="25.8">
       <c r="B27" s="7"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="73"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
     </row>
@@ -3853,30 +3511,30 @@
     <row r="29" spans="1:17" ht="129">
       <c r="B29" s="7"/>
       <c r="C29" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29" s="23">
         <v>3.3</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F29" s="24">
         <v>3822002000</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K29" s="51">
         <v>100</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M29" s="52">
         <v>0.05</v>
@@ -3919,7 +3577,7 @@
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N31" s="58">
         <f>SUM(N29:N30)</f>
@@ -4002,8 +3660,8 @@
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
       <c r="J37" s="33"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
     </row>
     <row r="38" spans="2:14" ht="24.75" customHeight="1">
       <c r="B38" s="7"/>
@@ -4015,14 +3673,14 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="33"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
     </row>
     <row r="39" spans="2:14" ht="24.75" customHeight="1">
       <c r="B39" s="7"/>
       <c r="C39" s="28"/>
       <c r="D39" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
@@ -4030,8 +3688,8 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
@@ -4145,20 +3803,27 @@
     </row>
     <row r="48" spans="2:14" ht="32.4">
       <c r="C48" s="1"/>
-      <c r="G48" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
+      <c r="G48" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
     </row>
     <row r="50" spans="4:4" ht="25.2">
       <c r="D50" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
     <mergeCell ref="G48:L48"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -4168,13 +3833,6 @@
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32:I32 J28:J32 H28:I29" xr:uid="{00000000-0002-0000-0200-000000000000}">
